--- a/data/output/dictionary_expand_blank.xlsx
+++ b/data/output/dictionary_expand_blank.xlsx
@@ -50,589 +50,589 @@
     <t xml:space="preserve">中国</t>
   </si>
   <si>
+    <t xml:space="preserve">经验</t>
+  </si>
+  <si>
     <t xml:space="preserve">疫情防控</t>
   </si>
   <si>
+    <t xml:space="preserve">全球</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新冠肺炎疫情</t>
+  </si>
+  <si>
     <t xml:space="preserve">防控</t>
   </si>
   <si>
-    <t xml:space="preserve">全球</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新冠肺炎疫情</t>
-  </si>
-  <si>
-    <t xml:space="preserve">经验</t>
+    <t xml:space="preserve">世界</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中方</t>
+  </si>
+  <si>
+    <t xml:space="preserve">防疫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分享</t>
+  </si>
+  <si>
+    <t xml:space="preserve">应对</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蔓延</t>
+  </si>
+  <si>
+    <t xml:space="preserve">各国</t>
   </si>
   <si>
     <t xml:space="preserve">向</t>
   </si>
   <si>
-    <t xml:space="preserve">各国</t>
-  </si>
-  <si>
-    <t xml:space="preserve">世界</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中方</t>
+    <t xml:space="preserve">中国政府</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国际</t>
+  </si>
+  <si>
+    <t xml:space="preserve">努力</t>
   </si>
   <si>
     <t xml:space="preserve">提供</t>
   </si>
   <si>
-    <t xml:space="preserve">当前</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分享</t>
+    <t xml:space="preserve">扩散</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国际社会</t>
   </si>
   <si>
     <t xml:space="preserve">国家</t>
   </si>
   <si>
+    <t xml:space="preserve">的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">携手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">战胜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斗争</t>
+  </si>
+  <si>
     <t xml:space="preserve">积极</t>
   </si>
   <si>
-    <t xml:space="preserve">中国政府</t>
-  </si>
-  <si>
-    <t xml:space="preserve">防疫</t>
-  </si>
-  <si>
-    <t xml:space="preserve">合作</t>
-  </si>
-  <si>
-    <t xml:space="preserve">努力</t>
+    <t xml:space="preserve">这场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">抗击</t>
   </si>
   <si>
     <t xml:space="preserve">与</t>
   </si>
   <si>
-    <t xml:space="preserve">蔓延</t>
-  </si>
-  <si>
-    <t xml:space="preserve">的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">应对</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国际</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国际社会</t>
+    <t xml:space="preserve">其他</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遏制</t>
+  </si>
+  <si>
+    <t xml:space="preserve">表示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这次</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一线</t>
+  </si>
+  <si>
+    <t xml:space="preserve">和</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对</t>
   </si>
   <si>
     <t xml:space="preserve">同时</t>
   </si>
   <si>
+    <t xml:space="preserve">并</t>
+  </si>
+  <si>
+    <t xml:space="preserve">物资</t>
+  </si>
+  <si>
     <t xml:space="preserve">为</t>
   </si>
   <si>
-    <t xml:space="preserve">战胜</t>
+    <t xml:space="preserve">全力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">援助</t>
+  </si>
+  <si>
+    <t xml:space="preserve">防控阻击战</t>
+  </si>
+  <si>
+    <t xml:space="preserve">所</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加强</t>
   </si>
   <si>
     <t xml:space="preserve">措施</t>
   </si>
   <si>
-    <t xml:space="preserve">斗争</t>
-  </si>
-  <si>
     <t xml:space="preserve">在</t>
   </si>
   <si>
-    <t xml:space="preserve">其他</t>
-  </si>
-  <si>
-    <t xml:space="preserve">表示</t>
+    <t xml:space="preserve">危机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以及</t>
+  </si>
+  <si>
+    <t xml:space="preserve">举措</t>
+  </si>
+  <si>
+    <t xml:space="preserve">相信</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第一线</t>
+  </si>
+  <si>
+    <t xml:space="preserve">需要</t>
+  </si>
+  <si>
+    <t xml:space="preserve">希望</t>
+  </si>
+  <si>
+    <t xml:space="preserve">武汉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">信心</t>
+  </si>
+  <si>
+    <t xml:space="preserve">共同</t>
+  </si>
+  <si>
+    <t xml:space="preserve">打赢</t>
   </si>
   <si>
     <t xml:space="preserve">采取</t>
   </si>
   <si>
-    <t xml:space="preserve">防控阻击战</t>
-  </si>
-  <si>
-    <t xml:space="preserve">携手</t>
-  </si>
-  <si>
-    <t xml:space="preserve">并</t>
-  </si>
-  <si>
-    <t xml:space="preserve">对</t>
-  </si>
-  <si>
-    <t xml:space="preserve">举措</t>
-  </si>
-  <si>
     <t xml:space="preserve">继续</t>
   </si>
   <si>
-    <t xml:space="preserve">医疗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">遏制</t>
-  </si>
-  <si>
-    <t xml:space="preserve">需要</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一线</t>
-  </si>
-  <si>
-    <t xml:space="preserve">扩散</t>
-  </si>
-  <si>
-    <t xml:space="preserve">和</t>
-  </si>
-  <si>
-    <t xml:space="preserve">这场</t>
-  </si>
-  <si>
-    <t xml:space="preserve">援助</t>
+    <t xml:space="preserve">我们</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">取得</t>
+  </si>
+  <si>
+    <t xml:space="preserve">强调</t>
+  </si>
+  <si>
+    <t xml:space="preserve">了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对于</t>
+  </si>
+  <si>
+    <t xml:space="preserve">支持</t>
+  </si>
+  <si>
+    <t xml:space="preserve">专家组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">此次</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">帮助</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有效</t>
+  </si>
+  <si>
+    <t xml:space="preserve">形势</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阻击战</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多国</t>
+  </si>
+  <si>
+    <t xml:space="preserve">介绍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">及时</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重要</t>
+  </si>
+  <si>
+    <t xml:space="preserve">湖北</t>
+  </si>
+  <si>
+    <t xml:space="preserve">带来</t>
+  </si>
+  <si>
+    <t xml:space="preserve">专家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">经济</t>
+  </si>
+  <si>
+    <t xml:space="preserve">湖北省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">境外</t>
   </si>
   <si>
     <t xml:space="preserve">也</t>
   </si>
   <si>
-    <t xml:space="preserve">加强</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以及</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全力</t>
-  </si>
-  <si>
-    <t xml:space="preserve">希望</t>
+    <t xml:space="preserve">方面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">面对</t>
+  </si>
+  <si>
+    <t xml:space="preserve">得到</t>
+  </si>
+  <si>
+    <t xml:space="preserve">非洲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新冠肺炎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人士</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公共卫生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">爆发</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国内</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巨大</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会</t>
+  </si>
+  <si>
+    <t xml:space="preserve">控制</t>
+  </si>
+  <si>
+    <t xml:space="preserve">联防联控</t>
+  </si>
+  <si>
+    <t xml:space="preserve">认为</t>
+  </si>
+  <si>
+    <t xml:space="preserve">愿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赞赏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">战役</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赢得</t>
   </si>
   <si>
     <t xml:space="preserve">有力</t>
   </si>
   <si>
-    <t xml:space="preserve">所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">及时</t>
-  </si>
-  <si>
-    <t xml:space="preserve">打赢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">了</t>
-  </si>
-  <si>
-    <t xml:space="preserve">发生</t>
-  </si>
-  <si>
-    <t xml:space="preserve">这次</t>
-  </si>
-  <si>
-    <t xml:space="preserve">抗击</t>
-  </si>
-  <si>
-    <t xml:space="preserve">支持</t>
+    <t xml:space="preserve">迅速</t>
+  </si>
+  <si>
+    <t xml:space="preserve">同</t>
+  </si>
+  <si>
+    <t xml:space="preserve">救治</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">将</t>
+  </si>
+  <si>
+    <t xml:space="preserve">力量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">能力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">影响</t>
+  </si>
+  <si>
+    <t xml:space="preserve">挑战</t>
+  </si>
+  <si>
+    <t xml:space="preserve">病毒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">世界卫生组织</t>
+  </si>
+  <si>
+    <t xml:space="preserve">积累</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新冠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">武汉市</t>
+  </si>
+  <si>
+    <t xml:space="preserve">世卫组织</t>
+  </si>
+  <si>
+    <t xml:space="preserve">防止</t>
+  </si>
+  <si>
+    <t xml:space="preserve">做法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">感谢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这</t>
   </si>
   <si>
     <t xml:space="preserve">意大利</t>
   </si>
   <si>
-    <t xml:space="preserve">介绍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有效</t>
-  </si>
-  <si>
-    <t xml:space="preserve">我们</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物资</t>
-  </si>
-  <si>
-    <t xml:space="preserve">共同</t>
-  </si>
-  <si>
-    <t xml:space="preserve">世卫组织</t>
-  </si>
-  <si>
-    <t xml:space="preserve">相信</t>
-  </si>
-  <si>
-    <t xml:space="preserve">帮助</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第一线</t>
-  </si>
-  <si>
-    <t xml:space="preserve">影响</t>
-  </si>
-  <si>
-    <t xml:space="preserve">专家</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赞赏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会</t>
-  </si>
-  <si>
-    <t xml:space="preserve">专家组</t>
+    <t xml:space="preserve">针对</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新型冠状病毒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">进一步</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医护人员</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宝贵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最</t>
   </si>
   <si>
     <t xml:space="preserve">这是</t>
   </si>
   <si>
-    <t xml:space="preserve">方面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">形势</t>
-  </si>
-  <si>
-    <t xml:space="preserve">武汉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">爆发</t>
-  </si>
-  <si>
-    <t xml:space="preserve">强调</t>
+    <t xml:space="preserve">持续</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">传播</t>
+  </si>
+  <si>
+    <t xml:space="preserve">力所能及</t>
+  </si>
+  <si>
+    <t xml:space="preserve">坚决</t>
+  </si>
+  <si>
+    <t xml:space="preserve">相关</t>
+  </si>
+  <si>
+    <t xml:space="preserve">给</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">借鉴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">做好</t>
+  </si>
+  <si>
+    <t xml:space="preserve">目前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">非常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">至关重要</t>
+  </si>
+  <si>
+    <t xml:space="preserve">受</t>
+  </si>
+  <si>
+    <t xml:space="preserve">协调</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推动</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作为</t>
+  </si>
+  <si>
+    <t xml:space="preserve">能够</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开展</t>
+  </si>
+  <si>
+    <t xml:space="preserve">支援</t>
+  </si>
+  <si>
+    <t xml:space="preserve">组织</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贡献</t>
+  </si>
+  <si>
+    <t xml:space="preserve">期间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">欧洲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已经</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国共产党</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最新</t>
+  </si>
+  <si>
+    <t xml:space="preserve">面前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国人民</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这些</t>
+  </si>
+  <si>
+    <t xml:space="preserve">来</t>
   </si>
   <si>
     <t xml:space="preserve">正在</t>
   </si>
   <si>
-    <t xml:space="preserve">信心</t>
-  </si>
-  <si>
-    <t xml:space="preserve">将</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全世界</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湖北</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">同</t>
-  </si>
-  <si>
-    <t xml:space="preserve">非洲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国内</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人民</t>
-  </si>
-  <si>
-    <t xml:space="preserve">指出</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最</t>
-  </si>
-  <si>
-    <t xml:space="preserve">公共卫生</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赢得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">带来</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重要</t>
-  </si>
-  <si>
-    <t xml:space="preserve">世界卫生组织</t>
-  </si>
-  <si>
-    <t xml:space="preserve">力所能及</t>
-  </si>
-  <si>
-    <t xml:space="preserve">信息</t>
+    <t xml:space="preserve">克服</t>
+  </si>
+  <si>
+    <t xml:space="preserve">此外</t>
+  </si>
+  <si>
+    <t xml:space="preserve">他们</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奋战</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有</t>
+  </si>
+  <si>
+    <t xml:space="preserve">时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">如何</t>
+  </si>
+  <si>
+    <t xml:space="preserve">面临</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">充满信心</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">而</t>
+  </si>
+  <si>
+    <t xml:space="preserve">经济社会发展</t>
+  </si>
+  <si>
+    <t xml:space="preserve">行动</t>
   </si>
   <si>
     <t xml:space="preserve">还</t>
   </si>
   <si>
-    <t xml:space="preserve">认为</t>
-  </si>
-  <si>
-    <t xml:space="preserve">贡献</t>
-  </si>
-  <si>
-    <t xml:space="preserve">挑战</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国人民</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新冠肺炎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">做好</t>
-  </si>
-  <si>
-    <t xml:space="preserve">阻击战</t>
-  </si>
-  <si>
-    <t xml:space="preserve">得到</t>
-  </si>
-  <si>
-    <t xml:space="preserve">救治</t>
-  </si>
-  <si>
-    <t xml:space="preserve">控制</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最新</t>
-  </si>
-  <si>
-    <t xml:space="preserve">感谢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">经济社会发展</t>
-  </si>
-  <si>
-    <t xml:space="preserve">工作</t>
-  </si>
-  <si>
-    <t xml:space="preserve">奋战</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作出</t>
-  </si>
-  <si>
-    <t xml:space="preserve">联防联控</t>
-  </si>
-  <si>
-    <t xml:space="preserve">多国</t>
-  </si>
-  <si>
-    <t xml:space="preserve">巨大</t>
-  </si>
-  <si>
-    <t xml:space="preserve">他们</t>
-  </si>
-  <si>
-    <t xml:space="preserve">借鉴</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">愿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">对于</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">力量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">此次</t>
-  </si>
-  <si>
-    <t xml:space="preserve">危机</t>
-  </si>
-  <si>
-    <t xml:space="preserve">战役</t>
-  </si>
-  <si>
-    <t xml:space="preserve">很多</t>
-  </si>
-  <si>
-    <t xml:space="preserve">应</t>
-  </si>
-  <si>
-    <t xml:space="preserve">这</t>
-  </si>
-  <si>
-    <t xml:space="preserve">做法</t>
-  </si>
-  <si>
-    <t xml:space="preserve">面临</t>
-  </si>
-  <si>
-    <t xml:space="preserve">成为</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正</t>
-  </si>
-  <si>
-    <t xml:space="preserve">能够</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当地</t>
-  </si>
-  <si>
-    <t xml:space="preserve">进一步</t>
-  </si>
-  <si>
-    <t xml:space="preserve">坚决</t>
-  </si>
-  <si>
-    <t xml:space="preserve">经济</t>
-  </si>
-  <si>
-    <t xml:space="preserve">受</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已经</t>
-  </si>
-  <si>
-    <t xml:space="preserve">协调</t>
-  </si>
-  <si>
-    <t xml:space="preserve">防止</t>
-  </si>
-  <si>
-    <t xml:space="preserve">各地</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医护人员</t>
-  </si>
-  <si>
-    <t xml:space="preserve">而</t>
-  </si>
-  <si>
-    <t xml:space="preserve">时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">相关</t>
-  </si>
-  <si>
-    <t xml:space="preserve">给</t>
-  </si>
-  <si>
-    <t xml:space="preserve">面对</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宝贵</t>
-  </si>
-  <si>
-    <t xml:space="preserve">期间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">根据</t>
-  </si>
-  <si>
-    <t xml:space="preserve">展现</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国共产党</t>
-  </si>
-  <si>
-    <t xml:space="preserve">面前</t>
-  </si>
-  <si>
-    <t xml:space="preserve">前线</t>
-  </si>
-  <si>
-    <t xml:space="preserve">付出</t>
+    <t xml:space="preserve">以外</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紧急</t>
+  </si>
+  <si>
+    <t xml:space="preserve">急需</t>
+  </si>
+  <si>
+    <t xml:space="preserve">肺炎疫情</t>
   </si>
   <si>
     <t xml:space="preserve">第一</t>
   </si>
   <si>
-    <t xml:space="preserve">人民战争</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有</t>
-  </si>
-  <si>
-    <t xml:space="preserve">强大</t>
-  </si>
-  <si>
-    <t xml:space="preserve">急需</t>
-  </si>
-  <si>
-    <t xml:space="preserve">至关重要</t>
-  </si>
-  <si>
-    <t xml:space="preserve">欧洲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已</t>
-  </si>
-  <si>
-    <t xml:space="preserve">目前</t>
-  </si>
-  <si>
-    <t xml:space="preserve">发挥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">成效</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人士</t>
-  </si>
-  <si>
-    <t xml:space="preserve">支援</t>
-  </si>
-  <si>
-    <t xml:space="preserve">更多</t>
-  </si>
-  <si>
-    <t xml:space="preserve">但</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开展</t>
-  </si>
-  <si>
-    <t xml:space="preserve">针对</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美国</t>
-  </si>
-  <si>
-    <t xml:space="preserve">呼吁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">值得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">严重</t>
-  </si>
-  <si>
-    <t xml:space="preserve">能力</t>
-  </si>
-  <si>
-    <t xml:space="preserve">这些</t>
-  </si>
-  <si>
-    <t xml:space="preserve">如何</t>
-  </si>
-  <si>
-    <t xml:space="preserve">安全</t>
-  </si>
-  <si>
-    <t xml:space="preserve">持续</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作为</t>
-  </si>
-  <si>
-    <t xml:space="preserve">俄罗斯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">派出</t>
-  </si>
-  <si>
-    <t xml:space="preserve">推动</t>
+    <t xml:space="preserve">援鄂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">疾病</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保障</t>
+  </si>
+  <si>
+    <t xml:space="preserve">资源</t>
   </si>
 </sst>
 </file>
@@ -993,7 +993,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.803315233690862</v>
+        <v>0.809247409945708</v>
       </c>
       <c r="E2" t="n">
         <v>4056</v>
@@ -1011,7 +1011,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7638327105568</v>
+        <v>0.773497061658729</v>
       </c>
       <c r="E3" t="n">
         <v>344</v>
@@ -1029,7 +1029,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.749039157622339</v>
+        <v>0.768864929278378</v>
       </c>
       <c r="E4" t="n">
         <v>559</v>
@@ -1047,7 +1047,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.739873327020006</v>
+        <v>0.726824505368901</v>
       </c>
       <c r="E5" t="n">
         <v>684</v>
@@ -1065,7 +1065,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>0.660129277390162</v>
+        <v>0.678017919632591</v>
       </c>
       <c r="E6" t="n">
         <v>3958</v>
@@ -1083,13 +1083,13 @@
         <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.650784553057628</v>
+        <v>0.659268146763788</v>
       </c>
       <c r="E7" t="n">
-        <v>2178</v>
+        <v>547</v>
       </c>
       <c r="F7" t="n">
-        <v>947</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8">
@@ -1101,13 +1101,13 @@
         <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>0.629387685319769</v>
+        <v>0.643832771124511</v>
       </c>
       <c r="E8" t="n">
-        <v>1209</v>
+        <v>2178</v>
       </c>
       <c r="F8" t="n">
-        <v>611</v>
+        <v>947</v>
       </c>
     </row>
     <row r="9">
@@ -1119,7 +1119,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>0.627755209587999</v>
+        <v>0.630595673590598</v>
       </c>
       <c r="E9" t="n">
         <v>849</v>
@@ -1137,7 +1137,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>0.623925521017922</v>
+        <v>0.622720190850835</v>
       </c>
       <c r="E10" t="n">
         <v>788</v>
@@ -1155,13 +1155,13 @@
         <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>0.612869519400066</v>
+        <v>0.619738647714788</v>
       </c>
       <c r="E11" t="n">
-        <v>547</v>
+        <v>1209</v>
       </c>
       <c r="F11" t="n">
-        <v>246</v>
+        <v>611</v>
       </c>
     </row>
     <row r="12">
@@ -1173,13 +1173,13 @@
         <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>0.601303697335983</v>
+        <v>0.588712640857146</v>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>720</v>
       </c>
       <c r="F12" t="n">
-        <v>754</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13">
@@ -1191,13 +1191,13 @@
         <v>18</v>
       </c>
       <c r="D13" t="n">
-        <v>0.596361735956057</v>
+        <v>0.586196159436812</v>
       </c>
       <c r="E13" t="n">
-        <v>364</v>
+        <v>859</v>
       </c>
       <c r="F13" t="n">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14">
@@ -1209,13 +1209,13 @@
         <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>0.594856509776494</v>
+        <v>0.582203962052339</v>
       </c>
       <c r="E14" t="n">
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="F14" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15">
@@ -1227,13 +1227,13 @@
         <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>0.587108558022267</v>
+        <v>0.576412988405937</v>
       </c>
       <c r="E15" t="n">
-        <v>859</v>
+        <v>983</v>
       </c>
       <c r="F15" t="n">
-        <v>212</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16">
@@ -1245,13 +1245,13 @@
         <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>0.580129527092089</v>
+        <v>0.571253332304616</v>
       </c>
       <c r="E16" t="n">
-        <v>1064</v>
+        <v>265</v>
       </c>
       <c r="F16" t="n">
-        <v>674</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
@@ -1263,13 +1263,13 @@
         <v>22</v>
       </c>
       <c r="D17" t="n">
-        <v>0.56860845261758</v>
+        <v>0.565207110524788</v>
       </c>
       <c r="E17" t="n">
-        <v>485</v>
+        <v>797</v>
       </c>
       <c r="F17" t="n">
-        <v>376</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18">
@@ -1281,13 +1281,13 @@
         <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>0.567495235790431</v>
+        <v>0.561082610549098</v>
       </c>
       <c r="E18" t="n">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F18" t="n">
-        <v>167</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
@@ -1299,13 +1299,13 @@
         <v>24</v>
       </c>
       <c r="D19" t="n">
-        <v>0.563063997889829</v>
+        <v>0.558840270101509</v>
       </c>
       <c r="E19" t="n">
-        <v>2051</v>
+        <v>364</v>
       </c>
       <c r="F19" t="n">
-        <v>1017</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20">
@@ -1317,13 +1317,13 @@
         <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>0.561768895151446</v>
+        <v>0.556186707761621</v>
       </c>
       <c r="E20" t="n">
-        <v>731</v>
+        <v>1202</v>
       </c>
       <c r="F20" t="n">
-        <v>507</v>
+        <v>754</v>
       </c>
     </row>
     <row r="21">
@@ -1335,7 +1335,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="n">
-        <v>0.554689330513907</v>
+        <v>0.545025478276407</v>
       </c>
       <c r="E21" t="n">
         <v>398</v>
@@ -1353,13 +1353,13 @@
         <v>27</v>
       </c>
       <c r="D22" t="n">
-        <v>0.554007145342343</v>
+        <v>0.544898718123692</v>
       </c>
       <c r="E22" t="n">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F22" t="n">
-        <v>350</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23">
@@ -1371,13 +1371,13 @@
         <v>28</v>
       </c>
       <c r="D23" t="n">
-        <v>0.553768479695482</v>
+        <v>0.541602230707152</v>
       </c>
       <c r="E23" t="n">
-        <v>983</v>
+        <v>907</v>
       </c>
       <c r="F23" t="n">
-        <v>441</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24">
@@ -1389,7 +1389,7 @@
         <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>0.55133045853971</v>
+        <v>0.540972057534632</v>
       </c>
       <c r="E24" t="n">
         <v>658</v>
@@ -1407,13 +1407,13 @@
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>0.544210664040516</v>
+        <v>0.537663458265107</v>
       </c>
       <c r="E25" t="n">
-        <v>1353</v>
+        <v>1064</v>
       </c>
       <c r="F25" t="n">
-        <v>863</v>
+        <v>674</v>
       </c>
     </row>
     <row r="26">
@@ -1425,13 +1425,13 @@
         <v>31</v>
       </c>
       <c r="D26" t="n">
-        <v>0.542207869524147</v>
+        <v>0.531374032220924</v>
       </c>
       <c r="E26" t="n">
-        <v>255</v>
+        <v>160</v>
       </c>
       <c r="F26" t="n">
-        <v>203</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27">
@@ -1443,13 +1443,13 @@
         <v>32</v>
       </c>
       <c r="D27" t="n">
-        <v>0.540130269939089</v>
+        <v>0.529411830195887</v>
       </c>
       <c r="E27" t="n">
-        <v>35567</v>
+        <v>294</v>
       </c>
       <c r="F27" t="n">
-        <v>2511</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28">
@@ -1461,13 +1461,13 @@
         <v>33</v>
       </c>
       <c r="D28" t="n">
-        <v>0.538648519269291</v>
+        <v>0.529290737678403</v>
       </c>
       <c r="E28" t="n">
-        <v>797</v>
+        <v>2051</v>
       </c>
       <c r="F28" t="n">
-        <v>479</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="29">
@@ -1479,13 +1479,13 @@
         <v>34</v>
       </c>
       <c r="D29" t="n">
-        <v>0.533377470236489</v>
+        <v>0.522389604712005</v>
       </c>
       <c r="E29" t="n">
-        <v>907</v>
+        <v>35567</v>
       </c>
       <c r="F29" t="n">
-        <v>559</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="30">
@@ -1497,13 +1497,13 @@
         <v>35</v>
       </c>
       <c r="D30" t="n">
-        <v>0.528526046756018</v>
+        <v>0.520382966116827</v>
       </c>
       <c r="E30" t="n">
-        <v>294</v>
+        <v>185</v>
       </c>
       <c r="F30" t="n">
-        <v>190</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31">
@@ -1515,13 +1515,13 @@
         <v>36</v>
       </c>
       <c r="D31" t="n">
-        <v>0.524912699736968</v>
+        <v>0.518664047472678</v>
       </c>
       <c r="E31" t="n">
-        <v>790</v>
+        <v>445</v>
       </c>
       <c r="F31" t="n">
-        <v>597</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32">
@@ -1533,13 +1533,13 @@
         <v>37</v>
       </c>
       <c r="D32" t="n">
-        <v>0.524908944937613</v>
+        <v>0.518212185400746</v>
       </c>
       <c r="E32" t="n">
-        <v>3485</v>
+        <v>260</v>
       </c>
       <c r="F32" t="n">
-        <v>1578</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33">
@@ -1551,13 +1551,13 @@
         <v>38</v>
       </c>
       <c r="D33" t="n">
-        <v>0.523890054623514</v>
+        <v>0.512510410507828</v>
       </c>
       <c r="E33" t="n">
-        <v>445</v>
+        <v>731</v>
       </c>
       <c r="F33" t="n">
-        <v>298</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34">
@@ -1569,13 +1569,13 @@
         <v>39</v>
       </c>
       <c r="D34" t="n">
-        <v>0.516015429984828</v>
+        <v>0.507310445604929</v>
       </c>
       <c r="E34" t="n">
-        <v>953</v>
+        <v>278</v>
       </c>
       <c r="F34" t="n">
-        <v>577</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35">
@@ -1587,13 +1587,13 @@
         <v>40</v>
       </c>
       <c r="D35" t="n">
-        <v>0.511054809014427</v>
+        <v>0.506421710504838</v>
       </c>
       <c r="E35" t="n">
-        <v>260</v>
+        <v>916</v>
       </c>
       <c r="F35" t="n">
-        <v>173</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36">
@@ -1605,13 +1605,13 @@
         <v>41</v>
       </c>
       <c r="D36" t="n">
-        <v>0.509836226455819</v>
+        <v>0.505148480981471</v>
       </c>
       <c r="E36" t="n">
-        <v>9501</v>
+        <v>261</v>
       </c>
       <c r="F36" t="n">
-        <v>2206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37">
@@ -1623,13 +1623,13 @@
         <v>42</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5090018083961</v>
+        <v>0.505042963017688</v>
       </c>
       <c r="E37" t="n">
-        <v>457</v>
+        <v>1353</v>
       </c>
       <c r="F37" t="n">
-        <v>335</v>
+        <v>863</v>
       </c>
     </row>
     <row r="38">
@@ -1641,13 +1641,13 @@
         <v>43</v>
       </c>
       <c r="D38" t="n">
-        <v>0.506933702237115</v>
+        <v>0.502030126356513</v>
       </c>
       <c r="E38" t="n">
-        <v>1459</v>
+        <v>457</v>
       </c>
       <c r="F38" t="n">
-        <v>690</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39">
@@ -1659,13 +1659,13 @@
         <v>44</v>
       </c>
       <c r="D39" t="n">
-        <v>0.49902249426133</v>
+        <v>0.497004744698006</v>
       </c>
       <c r="E39" t="n">
-        <v>660</v>
+        <v>182</v>
       </c>
       <c r="F39" t="n">
-        <v>427</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40">
@@ -1677,13 +1677,13 @@
         <v>45</v>
       </c>
       <c r="D40" t="n">
-        <v>0.49674447341188</v>
+        <v>0.494170499761967</v>
       </c>
       <c r="E40" t="n">
-        <v>208</v>
+        <v>1459</v>
       </c>
       <c r="F40" t="n">
-        <v>165</v>
+        <v>690</v>
       </c>
     </row>
     <row r="41">
@@ -1695,13 +1695,13 @@
         <v>46</v>
       </c>
       <c r="D41" t="n">
-        <v>0.494557775278351</v>
+        <v>0.489526186774283</v>
       </c>
       <c r="E41" t="n">
-        <v>185</v>
+        <v>306</v>
       </c>
       <c r="F41" t="n">
-        <v>144</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42">
@@ -1713,13 +1713,13 @@
         <v>47</v>
       </c>
       <c r="D42" t="n">
-        <v>0.493488130199083</v>
+        <v>0.487871469146085</v>
       </c>
       <c r="E42" t="n">
-        <v>1000</v>
+        <v>660</v>
       </c>
       <c r="F42" t="n">
-        <v>743</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43">
@@ -1731,13 +1731,13 @@
         <v>48</v>
       </c>
       <c r="D43" t="n">
-        <v>0.493077584795043</v>
+        <v>0.486102666341526</v>
       </c>
       <c r="E43" t="n">
-        <v>3044</v>
+        <v>8984</v>
       </c>
       <c r="F43" t="n">
-        <v>1442</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="44">
@@ -1749,13 +1749,13 @@
         <v>49</v>
       </c>
       <c r="D44" t="n">
-        <v>0.490677497673661</v>
+        <v>0.48268160690663</v>
       </c>
       <c r="E44" t="n">
-        <v>409</v>
+        <v>3044</v>
       </c>
       <c r="F44" t="n">
-        <v>307</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="45">
@@ -1767,13 +1767,13 @@
         <v>50</v>
       </c>
       <c r="D45" t="n">
-        <v>0.487353777870493</v>
+        <v>0.475403240610999</v>
       </c>
       <c r="E45" t="n">
-        <v>756</v>
+        <v>790</v>
       </c>
       <c r="F45" t="n">
-        <v>541</v>
+        <v>597</v>
       </c>
     </row>
     <row r="46">
@@ -1785,13 +1785,13 @@
         <v>51</v>
       </c>
       <c r="D46" t="n">
-        <v>0.486847758613759</v>
+        <v>0.474532290391161</v>
       </c>
       <c r="E46" t="n">
-        <v>916</v>
+        <v>1000</v>
       </c>
       <c r="F46" t="n">
-        <v>476</v>
+        <v>743</v>
       </c>
     </row>
     <row r="47">
@@ -1803,13 +1803,13 @@
         <v>52</v>
       </c>
       <c r="D47" t="n">
-        <v>0.482710362270827</v>
+        <v>0.470621336098856</v>
       </c>
       <c r="E47" t="n">
-        <v>182</v>
+        <v>937</v>
       </c>
       <c r="F47" t="n">
-        <v>142</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48">
@@ -1821,13 +1821,13 @@
         <v>53</v>
       </c>
       <c r="D48" t="n">
-        <v>0.482507974529931</v>
+        <v>0.469044095183104</v>
       </c>
       <c r="E48" t="n">
-        <v>654</v>
+        <v>3485</v>
       </c>
       <c r="F48" t="n">
-        <v>471</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="49">
@@ -1839,13 +1839,13 @@
         <v>54</v>
       </c>
       <c r="D49" t="n">
-        <v>0.482371046442392</v>
+        <v>0.468555483471752</v>
       </c>
       <c r="E49" t="n">
-        <v>660</v>
+        <v>305</v>
       </c>
       <c r="F49" t="n">
-        <v>383</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50">
@@ -1857,13 +1857,13 @@
         <v>55</v>
       </c>
       <c r="D50" t="n">
-        <v>0.480766720671651</v>
+        <v>0.467542373621941</v>
       </c>
       <c r="E50" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F50" t="n">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51">
@@ -1875,13 +1875,13 @@
         <v>56</v>
       </c>
       <c r="D51" t="n">
-        <v>0.478235558964725</v>
+        <v>0.466911860467492</v>
       </c>
       <c r="E51" t="n">
-        <v>8984</v>
+        <v>208</v>
       </c>
       <c r="F51" t="n">
-        <v>2179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52">
@@ -1893,13 +1893,13 @@
         <v>57</v>
       </c>
       <c r="D52" t="n">
-        <v>0.476522202754771</v>
+        <v>0.46377089871212</v>
       </c>
       <c r="E52" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="F52" t="n">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53">
@@ -1911,13 +1911,13 @@
         <v>58</v>
       </c>
       <c r="D53" t="n">
-        <v>0.469861376925288</v>
+        <v>0.463630783472951</v>
       </c>
       <c r="E53" t="n">
-        <v>161</v>
+        <v>1167</v>
       </c>
       <c r="F53" t="n">
-        <v>119</v>
+        <v>620</v>
       </c>
     </row>
     <row r="54">
@@ -1929,13 +1929,13 @@
         <v>59</v>
       </c>
       <c r="D54" t="n">
-        <v>0.464011792342088</v>
+        <v>0.462920984016275</v>
       </c>
       <c r="E54" t="n">
-        <v>2509</v>
+        <v>953</v>
       </c>
       <c r="F54" t="n">
-        <v>1157</v>
+        <v>577</v>
       </c>
     </row>
     <row r="55">
@@ -1947,13 +1947,13 @@
         <v>60</v>
       </c>
       <c r="D55" t="n">
-        <v>0.462320074972928</v>
+        <v>0.459797820584001</v>
       </c>
       <c r="E55" t="n">
-        <v>1167</v>
+        <v>9501</v>
       </c>
       <c r="F55" t="n">
-        <v>620</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="56">
@@ -1965,13 +1965,13 @@
         <v>61</v>
       </c>
       <c r="D56" t="n">
-        <v>0.461259449896867</v>
+        <v>0.454832688588723</v>
       </c>
       <c r="E56" t="n">
-        <v>531</v>
+        <v>116</v>
       </c>
       <c r="F56" t="n">
-        <v>468</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57">
@@ -1983,13 +1983,13 @@
         <v>62</v>
       </c>
       <c r="D57" t="n">
-        <v>0.459260773220509</v>
+        <v>0.45454094942016</v>
       </c>
       <c r="E57" t="n">
-        <v>305</v>
+        <v>531</v>
       </c>
       <c r="F57" t="n">
-        <v>253</v>
+        <v>468</v>
       </c>
     </row>
     <row r="58">
@@ -2001,13 +2001,13 @@
         <v>63</v>
       </c>
       <c r="D58" t="n">
-        <v>0.457155777246172</v>
+        <v>0.451278149589588</v>
       </c>
       <c r="E58" t="n">
-        <v>489</v>
+        <v>409</v>
       </c>
       <c r="F58" t="n">
-        <v>353</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59">
@@ -2019,13 +2019,13 @@
         <v>64</v>
       </c>
       <c r="D59" t="n">
-        <v>0.455714440201257</v>
+        <v>0.450277465256685</v>
       </c>
       <c r="E59" t="n">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="F59" t="n">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60">
@@ -2037,13 +2037,13 @@
         <v>65</v>
       </c>
       <c r="D60" t="n">
-        <v>0.454081253907603</v>
+        <v>0.445327540020801</v>
       </c>
       <c r="E60" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="F60" t="n">
-        <v>214</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61">
@@ -2055,13 +2055,13 @@
         <v>66</v>
       </c>
       <c r="D61" t="n">
-        <v>0.450327141105451</v>
+        <v>0.443752051572871</v>
       </c>
       <c r="E61" t="n">
-        <v>481</v>
+        <v>654</v>
       </c>
       <c r="F61" t="n">
-        <v>357</v>
+        <v>471</v>
       </c>
     </row>
     <row r="62">
@@ -2073,13 +2073,13 @@
         <v>67</v>
       </c>
       <c r="D62" t="n">
-        <v>0.450065559821583</v>
+        <v>0.441945456380679</v>
       </c>
       <c r="E62" t="n">
-        <v>394</v>
+        <v>489</v>
       </c>
       <c r="F62" t="n">
-        <v>285</v>
+        <v>353</v>
       </c>
     </row>
     <row r="63">
@@ -2091,13 +2091,13 @@
         <v>68</v>
       </c>
       <c r="D63" t="n">
-        <v>0.448532524336728</v>
+        <v>0.440973296278239</v>
       </c>
       <c r="E63" t="n">
-        <v>8150</v>
+        <v>1456</v>
       </c>
       <c r="F63" t="n">
-        <v>1899</v>
+        <v>498</v>
       </c>
     </row>
     <row r="64">
@@ -2109,13 +2109,13 @@
         <v>69</v>
       </c>
       <c r="D64" t="n">
-        <v>0.44653508845389</v>
+        <v>0.439641574802546</v>
       </c>
       <c r="E64" t="n">
-        <v>519</v>
+        <v>418</v>
       </c>
       <c r="F64" t="n">
-        <v>418</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65">
@@ -2127,13 +2127,13 @@
         <v>70</v>
       </c>
       <c r="D65" t="n">
-        <v>0.439797353624367</v>
+        <v>0.439606401411232</v>
       </c>
       <c r="E65" t="n">
-        <v>306</v>
+        <v>595</v>
       </c>
       <c r="F65" t="n">
-        <v>252</v>
+        <v>387</v>
       </c>
     </row>
     <row r="66">
@@ -2145,13 +2145,13 @@
         <v>71</v>
       </c>
       <c r="D66" t="n">
-        <v>0.436560486363993</v>
+        <v>0.438105400638668</v>
       </c>
       <c r="E66" t="n">
-        <v>261</v>
+        <v>394</v>
       </c>
       <c r="F66" t="n">
-        <v>214</v>
+        <v>285</v>
       </c>
     </row>
     <row r="67">
@@ -2163,13 +2163,13 @@
         <v>72</v>
       </c>
       <c r="D67" t="n">
-        <v>0.436140314145748</v>
+        <v>0.436880912347593</v>
       </c>
       <c r="E67" t="n">
-        <v>1217</v>
+        <v>660</v>
       </c>
       <c r="F67" t="n">
-        <v>657</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68">
@@ -2181,13 +2181,13 @@
         <v>73</v>
       </c>
       <c r="D68" t="n">
-        <v>0.434598680353055</v>
+        <v>0.436765864900821</v>
       </c>
       <c r="E68" t="n">
-        <v>196</v>
+        <v>756</v>
       </c>
       <c r="F68" t="n">
-        <v>95</v>
+        <v>541</v>
       </c>
     </row>
     <row r="69">
@@ -2199,13 +2199,13 @@
         <v>74</v>
       </c>
       <c r="D69" t="n">
-        <v>0.429407803243832</v>
+        <v>0.436472934023174</v>
       </c>
       <c r="E69" t="n">
-        <v>483</v>
+        <v>5166</v>
       </c>
       <c r="F69" t="n">
-        <v>258</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="70">
@@ -2217,13 +2217,13 @@
         <v>75</v>
       </c>
       <c r="D70" t="n">
-        <v>0.428434325569247</v>
+        <v>0.435270604139811</v>
       </c>
       <c r="E70" t="n">
-        <v>528</v>
+        <v>885</v>
       </c>
       <c r="F70" t="n">
-        <v>378</v>
+        <v>591</v>
       </c>
     </row>
     <row r="71">
@@ -2235,13 +2235,13 @@
         <v>76</v>
       </c>
       <c r="D71" t="n">
-        <v>0.426666535277446</v>
+        <v>0.433581024555089</v>
       </c>
       <c r="E71" t="n">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="F71" t="n">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="72">
@@ -2253,13 +2253,13 @@
         <v>77</v>
       </c>
       <c r="D72" t="n">
-        <v>0.422532386018784</v>
+        <v>0.430686445175995</v>
       </c>
       <c r="E72" t="n">
-        <v>5166</v>
+        <v>752</v>
       </c>
       <c r="F72" t="n">
-        <v>1150</v>
+        <v>514</v>
       </c>
     </row>
     <row r="73">
@@ -2271,13 +2271,13 @@
         <v>78</v>
       </c>
       <c r="D73" t="n">
-        <v>0.421501225836346</v>
+        <v>0.430059475056094</v>
       </c>
       <c r="E73" t="n">
-        <v>937</v>
+        <v>8150</v>
       </c>
       <c r="F73" t="n">
-        <v>448</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="74">
@@ -2289,13 +2289,13 @@
         <v>79</v>
       </c>
       <c r="D74" t="n">
-        <v>0.420258579474731</v>
+        <v>0.42928941084785</v>
       </c>
       <c r="E74" t="n">
-        <v>595</v>
+        <v>241</v>
       </c>
       <c r="F74" t="n">
-        <v>387</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75">
@@ -2307,13 +2307,13 @@
         <v>80</v>
       </c>
       <c r="D75" t="n">
-        <v>0.419990127191087</v>
+        <v>0.428673292116136</v>
       </c>
       <c r="E75" t="n">
-        <v>307</v>
+        <v>1217</v>
       </c>
       <c r="F75" t="n">
-        <v>138</v>
+        <v>657</v>
       </c>
     </row>
     <row r="76">
@@ -2325,13 +2325,13 @@
         <v>81</v>
       </c>
       <c r="D76" t="n">
-        <v>0.419810388594702</v>
+        <v>0.427687161152475</v>
       </c>
       <c r="E76" t="n">
-        <v>328</v>
+        <v>147</v>
       </c>
       <c r="F76" t="n">
-        <v>214</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77">
@@ -2343,13 +2343,13 @@
         <v>82</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4193594491067</v>
+        <v>0.426602742543405</v>
       </c>
       <c r="E77" t="n">
-        <v>796</v>
+        <v>152</v>
       </c>
       <c r="F77" t="n">
-        <v>516</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78">
@@ -2361,13 +2361,13 @@
         <v>83</v>
       </c>
       <c r="D78" t="n">
-        <v>0.418798823414489</v>
+        <v>0.424819857824496</v>
       </c>
       <c r="E78" t="n">
-        <v>101</v>
+        <v>519</v>
       </c>
       <c r="F78" t="n">
-        <v>84</v>
+        <v>418</v>
       </c>
     </row>
     <row r="79">
@@ -2379,13 +2379,13 @@
         <v>84</v>
       </c>
       <c r="D79" t="n">
-        <v>0.418361877368612</v>
+        <v>0.423412189087492</v>
       </c>
       <c r="E79" t="n">
-        <v>667</v>
+        <v>796</v>
       </c>
       <c r="F79" t="n">
-        <v>457</v>
+        <v>516</v>
       </c>
     </row>
     <row r="80">
@@ -2397,13 +2397,13 @@
         <v>85</v>
       </c>
       <c r="D80" t="n">
-        <v>0.415243599333051</v>
+        <v>0.420134704700224</v>
       </c>
       <c r="E80" t="n">
-        <v>429</v>
+        <v>506</v>
       </c>
       <c r="F80" t="n">
-        <v>259</v>
+        <v>373</v>
       </c>
     </row>
     <row r="81">
@@ -2415,13 +2415,13 @@
         <v>86</v>
       </c>
       <c r="D81" t="n">
-        <v>0.415240556070905</v>
+        <v>0.416183506400249</v>
       </c>
       <c r="E81" t="n">
-        <v>165</v>
+        <v>285</v>
       </c>
       <c r="F81" t="n">
-        <v>105</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82">
@@ -2433,13 +2433,13 @@
         <v>87</v>
       </c>
       <c r="D82" t="n">
-        <v>0.413308280221552</v>
+        <v>0.415187142400129</v>
       </c>
       <c r="E82" t="n">
-        <v>754</v>
+        <v>101</v>
       </c>
       <c r="F82" t="n">
-        <v>478</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83">
@@ -2451,13 +2451,13 @@
         <v>88</v>
       </c>
       <c r="D83" t="n">
-        <v>0.409527268255774</v>
+        <v>0.41347059563016</v>
       </c>
       <c r="E83" t="n">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F83" t="n">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84">
@@ -2469,13 +2469,13 @@
         <v>89</v>
       </c>
       <c r="D84" t="n">
-        <v>0.40828483489094</v>
+        <v>0.411524043768629</v>
       </c>
       <c r="E84" t="n">
-        <v>343</v>
+        <v>483</v>
       </c>
       <c r="F84" t="n">
-        <v>299</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85">
@@ -2487,13 +2487,13 @@
         <v>90</v>
       </c>
       <c r="D85" t="n">
-        <v>0.405329074676715</v>
+        <v>0.407539385994719</v>
       </c>
       <c r="E85" t="n">
-        <v>740</v>
+        <v>481</v>
       </c>
       <c r="F85" t="n">
-        <v>546</v>
+        <v>357</v>
       </c>
     </row>
     <row r="86">
@@ -2505,13 +2505,13 @@
         <v>91</v>
       </c>
       <c r="D86" t="n">
-        <v>0.403893155614826</v>
+        <v>0.406535143975392</v>
       </c>
       <c r="E86" t="n">
-        <v>285</v>
+        <v>1681</v>
       </c>
       <c r="F86" t="n">
-        <v>224</v>
+        <v>961</v>
       </c>
     </row>
     <row r="87">
@@ -2523,13 +2523,13 @@
         <v>92</v>
       </c>
       <c r="D87" t="n">
-        <v>0.402268903199509</v>
+        <v>0.404587976187332</v>
       </c>
       <c r="E87" t="n">
-        <v>1456</v>
+        <v>989</v>
       </c>
       <c r="F87" t="n">
-        <v>498</v>
+        <v>643</v>
       </c>
     </row>
     <row r="88">
@@ -2541,13 +2541,13 @@
         <v>93</v>
       </c>
       <c r="D88" t="n">
-        <v>0.402188202538601</v>
+        <v>0.403424944520855</v>
       </c>
       <c r="E88" t="n">
-        <v>146</v>
+        <v>1173</v>
       </c>
       <c r="F88" t="n">
-        <v>129</v>
+        <v>446</v>
       </c>
     </row>
     <row r="89">
@@ -2559,13 +2559,13 @@
         <v>94</v>
       </c>
       <c r="D89" t="n">
-        <v>0.401666665594748</v>
+        <v>0.401515152698785</v>
       </c>
       <c r="E89" t="n">
-        <v>752</v>
+        <v>267</v>
       </c>
       <c r="F89" t="n">
-        <v>514</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90">
@@ -2577,13 +2577,13 @@
         <v>95</v>
       </c>
       <c r="D90" t="n">
-        <v>0.398938497787538</v>
+        <v>0.398819592315269</v>
       </c>
       <c r="E90" t="n">
-        <v>628</v>
+        <v>429</v>
       </c>
       <c r="F90" t="n">
-        <v>466</v>
+        <v>259</v>
       </c>
     </row>
     <row r="91">
@@ -2595,13 +2595,13 @@
         <v>96</v>
       </c>
       <c r="D91" t="n">
-        <v>0.398321178770216</v>
+        <v>0.397463665587148</v>
       </c>
       <c r="E91" t="n">
-        <v>418</v>
+        <v>1114</v>
       </c>
       <c r="F91" t="n">
-        <v>305</v>
+        <v>478</v>
       </c>
     </row>
     <row r="92">
@@ -2613,13 +2613,13 @@
         <v>97</v>
       </c>
       <c r="D92" t="n">
-        <v>0.398112066184279</v>
+        <v>0.394794570634539</v>
       </c>
       <c r="E92" t="n">
-        <v>2467</v>
+        <v>306</v>
       </c>
       <c r="F92" t="n">
-        <v>1247</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
@@ -2631,13 +2631,13 @@
         <v>98</v>
       </c>
       <c r="D93" t="n">
-        <v>0.396565764468496</v>
+        <v>0.393938300362939</v>
       </c>
       <c r="E93" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F93" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94">
@@ -2649,13 +2649,13 @@
         <v>99</v>
       </c>
       <c r="D94" t="n">
-        <v>0.396246871974646</v>
+        <v>0.393141319942341</v>
       </c>
       <c r="E94" t="n">
-        <v>1173</v>
+        <v>2509</v>
       </c>
       <c r="F94" t="n">
-        <v>446</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="95">
@@ -2667,13 +2667,13 @@
         <v>100</v>
       </c>
       <c r="D95" t="n">
-        <v>0.392850425903894</v>
+        <v>0.389887950144228</v>
       </c>
       <c r="E95" t="n">
-        <v>794</v>
+        <v>740</v>
       </c>
       <c r="F95" t="n">
-        <v>503</v>
+        <v>546</v>
       </c>
     </row>
     <row r="96">
@@ -2685,13 +2685,13 @@
         <v>101</v>
       </c>
       <c r="D96" t="n">
-        <v>0.391675834432221</v>
+        <v>0.388992758385871</v>
       </c>
       <c r="E96" t="n">
-        <v>476</v>
+        <v>273</v>
       </c>
       <c r="F96" t="n">
-        <v>276</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97">
@@ -2703,13 +2703,13 @@
         <v>102</v>
       </c>
       <c r="D97" t="n">
-        <v>0.391422547923706</v>
+        <v>0.38853624668755</v>
       </c>
       <c r="E97" t="n">
-        <v>157</v>
+        <v>296</v>
       </c>
       <c r="F97" t="n">
-        <v>71</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98">
@@ -2721,13 +2721,13 @@
         <v>103</v>
       </c>
       <c r="D98" t="n">
-        <v>0.391283286612766</v>
+        <v>0.386939649292516</v>
       </c>
       <c r="E98" t="n">
-        <v>503</v>
+        <v>157</v>
       </c>
       <c r="F98" t="n">
-        <v>334</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99">
@@ -2739,13 +2739,13 @@
         <v>104</v>
       </c>
       <c r="D99" t="n">
-        <v>0.390422766666722</v>
+        <v>0.384078636344568</v>
       </c>
       <c r="E99" t="n">
-        <v>265</v>
+        <v>781</v>
       </c>
       <c r="F99" t="n">
-        <v>190</v>
+        <v>420</v>
       </c>
     </row>
     <row r="100">
@@ -2757,13 +2757,13 @@
         <v>105</v>
       </c>
       <c r="D100" t="n">
-        <v>0.390153034563115</v>
+        <v>0.383938648635566</v>
       </c>
       <c r="E100" t="n">
-        <v>1103</v>
+        <v>175</v>
       </c>
       <c r="F100" t="n">
-        <v>524</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101">
@@ -2775,13 +2775,13 @@
         <v>106</v>
       </c>
       <c r="D101" t="n">
-        <v>0.388941391259818</v>
+        <v>0.383295584670023</v>
       </c>
       <c r="E101" t="n">
-        <v>885</v>
+        <v>5404</v>
       </c>
       <c r="F101" t="n">
-        <v>591</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="102">
@@ -2793,13 +2793,13 @@
         <v>107</v>
       </c>
       <c r="D102" t="n">
-        <v>0.38786873470523</v>
+        <v>0.383034471317836</v>
       </c>
       <c r="E102" t="n">
-        <v>658</v>
+        <v>337</v>
       </c>
       <c r="F102" t="n">
-        <v>426</v>
+        <v>221</v>
       </c>
     </row>
     <row r="103">
@@ -2811,13 +2811,13 @@
         <v>108</v>
       </c>
       <c r="D103" t="n">
-        <v>0.387634939274058</v>
+        <v>0.381853065520436</v>
       </c>
       <c r="E103" t="n">
-        <v>337</v>
+        <v>146</v>
       </c>
       <c r="F103" t="n">
-        <v>221</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104">
@@ -2829,13 +2829,13 @@
         <v>109</v>
       </c>
       <c r="D104" t="n">
-        <v>0.387113288207187</v>
+        <v>0.38118093527919</v>
       </c>
       <c r="E104" t="n">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="F104" t="n">
-        <v>57</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105">
@@ -2847,13 +2847,13 @@
         <v>110</v>
       </c>
       <c r="D105" t="n">
-        <v>0.386761153843418</v>
+        <v>0.380571790262641</v>
       </c>
       <c r="E105" t="n">
-        <v>267</v>
+        <v>162</v>
       </c>
       <c r="F105" t="n">
-        <v>232</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106">
@@ -2865,13 +2865,13 @@
         <v>111</v>
       </c>
       <c r="D106" t="n">
-        <v>0.385516238073338</v>
+        <v>0.379343749016304</v>
       </c>
       <c r="E106" t="n">
-        <v>989</v>
+        <v>754</v>
       </c>
       <c r="F106" t="n">
-        <v>643</v>
+        <v>478</v>
       </c>
     </row>
     <row r="107">
@@ -2883,13 +2883,13 @@
         <v>112</v>
       </c>
       <c r="D107" t="n">
-        <v>0.385024135688027</v>
+        <v>0.378143702924007</v>
       </c>
       <c r="E107" t="n">
-        <v>219</v>
+        <v>306</v>
       </c>
       <c r="F107" t="n">
-        <v>165</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108">
@@ -2901,13 +2901,13 @@
         <v>113</v>
       </c>
       <c r="D108" t="n">
-        <v>0.383592041829617</v>
+        <v>0.378137738008361</v>
       </c>
       <c r="E108" t="n">
-        <v>92</v>
+        <v>269</v>
       </c>
       <c r="F108" t="n">
-        <v>85</v>
+        <v>242</v>
       </c>
     </row>
     <row r="109">
@@ -2919,13 +2919,13 @@
         <v>114</v>
       </c>
       <c r="D109" t="n">
-        <v>0.381218496245144</v>
+        <v>0.377742709457741</v>
       </c>
       <c r="E109" t="n">
-        <v>376</v>
+        <v>285</v>
       </c>
       <c r="F109" t="n">
-        <v>269</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110">
@@ -2937,13 +2937,13 @@
         <v>115</v>
       </c>
       <c r="D110" t="n">
-        <v>0.381045494629379</v>
+        <v>0.377314314871276</v>
       </c>
       <c r="E110" t="n">
-        <v>1116</v>
+        <v>105</v>
       </c>
       <c r="F110" t="n">
-        <v>764</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111">
@@ -2955,13 +2955,13 @@
         <v>116</v>
       </c>
       <c r="D111" t="n">
-        <v>0.380806895676163</v>
+        <v>0.3768885594882</v>
       </c>
       <c r="E111" t="n">
-        <v>285</v>
+        <v>165</v>
       </c>
       <c r="F111" t="n">
-        <v>201</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112">
@@ -2973,13 +2973,13 @@
         <v>117</v>
       </c>
       <c r="D112" t="n">
-        <v>0.378639735907155</v>
+        <v>0.376468499335589</v>
       </c>
       <c r="E112" t="n">
-        <v>245</v>
+        <v>376</v>
       </c>
       <c r="F112" t="n">
-        <v>206</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113">
@@ -2991,13 +2991,13 @@
         <v>118</v>
       </c>
       <c r="D113" t="n">
-        <v>0.377974667928416</v>
+        <v>0.375349144484782</v>
       </c>
       <c r="E113" t="n">
-        <v>279</v>
+        <v>129</v>
       </c>
       <c r="F113" t="n">
-        <v>223</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114">
@@ -3009,13 +3009,13 @@
         <v>119</v>
       </c>
       <c r="D114" t="n">
-        <v>0.377047420770525</v>
+        <v>0.374725249735001</v>
       </c>
       <c r="E114" t="n">
-        <v>418</v>
+        <v>503</v>
       </c>
       <c r="F114" t="n">
-        <v>196</v>
+        <v>334</v>
       </c>
     </row>
     <row r="115">
@@ -3027,13 +3027,13 @@
         <v>120</v>
       </c>
       <c r="D115" t="n">
-        <v>0.376662863628275</v>
+        <v>0.373023455813351</v>
       </c>
       <c r="E115" t="n">
-        <v>781</v>
+        <v>61</v>
       </c>
       <c r="F115" t="n">
-        <v>420</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116">
@@ -3045,13 +3045,13 @@
         <v>121</v>
       </c>
       <c r="D116" t="n">
-        <v>0.374337876253848</v>
+        <v>0.372679359215702</v>
       </c>
       <c r="E116" t="n">
-        <v>957</v>
+        <v>271</v>
       </c>
       <c r="F116" t="n">
-        <v>560</v>
+        <v>230</v>
       </c>
     </row>
     <row r="117">
@@ -3063,13 +3063,13 @@
         <v>122</v>
       </c>
       <c r="D117" t="n">
-        <v>0.373940459705773</v>
+        <v>0.37087935953777</v>
       </c>
       <c r="E117" t="n">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="F117" t="n">
-        <v>86</v>
+        <v>181</v>
       </c>
     </row>
     <row r="118">
@@ -3081,13 +3081,13 @@
         <v>123</v>
       </c>
       <c r="D118" t="n">
-        <v>0.373545244898288</v>
+        <v>0.36711387637811</v>
       </c>
       <c r="E118" t="n">
-        <v>296</v>
+        <v>476</v>
       </c>
       <c r="F118" t="n">
-        <v>254</v>
+        <v>276</v>
       </c>
     </row>
     <row r="119">
@@ -3099,7 +3099,7 @@
         <v>124</v>
       </c>
       <c r="D119" t="n">
-        <v>0.370579689596671</v>
+        <v>0.366472219140177</v>
       </c>
       <c r="E119" t="n">
         <v>779</v>
@@ -3117,13 +3117,13 @@
         <v>125</v>
       </c>
       <c r="D120" t="n">
-        <v>0.370515101018883</v>
+        <v>0.364720835043932</v>
       </c>
       <c r="E120" t="n">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="F120" t="n">
-        <v>247</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121">
@@ -3135,13 +3135,13 @@
         <v>126</v>
       </c>
       <c r="D121" t="n">
-        <v>0.369477565153565</v>
+        <v>0.363398809982395</v>
       </c>
       <c r="E121" t="n">
-        <v>262</v>
+        <v>2467</v>
       </c>
       <c r="F121" t="n">
-        <v>236</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="122">
@@ -3153,13 +3153,13 @@
         <v>127</v>
       </c>
       <c r="D122" t="n">
-        <v>0.369383575284368</v>
+        <v>0.363221606163976</v>
       </c>
       <c r="E122" t="n">
-        <v>254</v>
+        <v>449</v>
       </c>
       <c r="F122" t="n">
-        <v>186</v>
+        <v>321</v>
       </c>
     </row>
     <row r="123">
@@ -3171,13 +3171,13 @@
         <v>128</v>
       </c>
       <c r="D123" t="n">
-        <v>0.368465477454244</v>
+        <v>0.359144401844681</v>
       </c>
       <c r="E123" t="n">
-        <v>349</v>
+        <v>500</v>
       </c>
       <c r="F123" t="n">
-        <v>229</v>
+        <v>372</v>
       </c>
     </row>
     <row r="124">
@@ -3189,13 +3189,13 @@
         <v>129</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3665056110185</v>
+        <v>0.35898565970792</v>
       </c>
       <c r="E124" t="n">
-        <v>3134</v>
+        <v>667</v>
       </c>
       <c r="F124" t="n">
-        <v>1161</v>
+        <v>457</v>
       </c>
     </row>
     <row r="125">
@@ -3207,13 +3207,13 @@
         <v>130</v>
       </c>
       <c r="D125" t="n">
-        <v>0.365583171331361</v>
+        <v>0.358572259226957</v>
       </c>
       <c r="E125" t="n">
-        <v>152</v>
+        <v>279</v>
       </c>
       <c r="F125" t="n">
-        <v>122</v>
+        <v>223</v>
       </c>
     </row>
     <row r="126">
@@ -3225,13 +3225,13 @@
         <v>131</v>
       </c>
       <c r="D126" t="n">
-        <v>0.36525072353439</v>
+        <v>0.357572182257092</v>
       </c>
       <c r="E126" t="n">
-        <v>340</v>
+        <v>395</v>
       </c>
       <c r="F126" t="n">
-        <v>274</v>
+        <v>235</v>
       </c>
     </row>
     <row r="127">
@@ -3243,13 +3243,13 @@
         <v>132</v>
       </c>
       <c r="D127" t="n">
-        <v>0.362213214349388</v>
+        <v>0.356417786350315</v>
       </c>
       <c r="E127" t="n">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="F127" t="n">
-        <v>242</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128">
@@ -3261,13 +3261,13 @@
         <v>133</v>
       </c>
       <c r="D128" t="n">
-        <v>0.360938038105462</v>
+        <v>0.35613962573405</v>
       </c>
       <c r="E128" t="n">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="F128" t="n">
-        <v>114</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129">
@@ -3279,13 +3279,13 @@
         <v>134</v>
       </c>
       <c r="D129" t="n">
-        <v>0.360656917438051</v>
+        <v>0.355975087287483</v>
       </c>
       <c r="E129" t="n">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="F129" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130">
@@ -3297,13 +3297,13 @@
         <v>135</v>
       </c>
       <c r="D130" t="n">
-        <v>0.358949986175942</v>
+        <v>0.355551452254658</v>
       </c>
       <c r="E130" t="n">
-        <v>1215</v>
+        <v>520</v>
       </c>
       <c r="F130" t="n">
-        <v>557</v>
+        <v>263</v>
       </c>
     </row>
     <row r="131">
@@ -3315,13 +3315,13 @@
         <v>136</v>
       </c>
       <c r="D131" t="n">
-        <v>0.357484669871842</v>
+        <v>0.355117152677862</v>
       </c>
       <c r="E131" t="n">
-        <v>108</v>
+        <v>307</v>
       </c>
       <c r="F131" t="n">
-        <v>81</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132">
@@ -3333,13 +3333,13 @@
         <v>137</v>
       </c>
       <c r="D132" t="n">
-        <v>0.357215212911011</v>
+        <v>0.353332420284284</v>
       </c>
       <c r="E132" t="n">
-        <v>5404</v>
+        <v>165</v>
       </c>
       <c r="F132" t="n">
-        <v>1716</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133">
@@ -3351,13 +3351,13 @@
         <v>138</v>
       </c>
       <c r="D133" t="n">
-        <v>0.356142286239886</v>
+        <v>0.350465674410033</v>
       </c>
       <c r="E133" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F133" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="134">
@@ -3369,13 +3369,13 @@
         <v>139</v>
       </c>
       <c r="D134" t="n">
-        <v>0.353147411261933</v>
+        <v>0.349784114316102</v>
       </c>
       <c r="E134" t="n">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="F134" t="n">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135">
@@ -3387,13 +3387,13 @@
         <v>140</v>
       </c>
       <c r="D135" t="n">
-        <v>0.352880820244632</v>
+        <v>0.349687115402482</v>
       </c>
       <c r="E135" t="n">
-        <v>1681</v>
+        <v>1379</v>
       </c>
       <c r="F135" t="n">
-        <v>961</v>
+        <v>818</v>
       </c>
     </row>
     <row r="136">
@@ -3405,13 +3405,13 @@
         <v>141</v>
       </c>
       <c r="D136" t="n">
-        <v>0.351754219916956</v>
+        <v>0.346131586638872</v>
       </c>
       <c r="E136" t="n">
-        <v>449</v>
+        <v>196</v>
       </c>
       <c r="F136" t="n">
-        <v>321</v>
+        <v>95</v>
       </c>
     </row>
     <row r="137">
@@ -3423,13 +3423,13 @@
         <v>142</v>
       </c>
       <c r="D137" t="n">
-        <v>0.351069971351857</v>
+        <v>0.34599306937071</v>
       </c>
       <c r="E137" t="n">
-        <v>152</v>
+        <v>290</v>
       </c>
       <c r="F137" t="n">
-        <v>126</v>
+        <v>255</v>
       </c>
     </row>
     <row r="138">
@@ -3441,13 +3441,13 @@
         <v>143</v>
       </c>
       <c r="D138" t="n">
-        <v>0.350180389060434</v>
+        <v>0.34413623722605</v>
       </c>
       <c r="E138" t="n">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="F138" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139">
@@ -3459,13 +3459,13 @@
         <v>144</v>
       </c>
       <c r="D139" t="n">
-        <v>0.350141719531478</v>
+        <v>0.343980308746697</v>
       </c>
       <c r="E139" t="n">
-        <v>129</v>
+        <v>432</v>
       </c>
       <c r="F139" t="n">
-        <v>107</v>
+        <v>349</v>
       </c>
     </row>
     <row r="140">
@@ -3477,13 +3477,13 @@
         <v>145</v>
       </c>
       <c r="D140" t="n">
-        <v>0.349066136525195</v>
+        <v>0.343904766216937</v>
       </c>
       <c r="E140" t="n">
-        <v>297</v>
+        <v>3134</v>
       </c>
       <c r="F140" t="n">
-        <v>224</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="141">
@@ -3495,13 +3495,13 @@
         <v>146</v>
       </c>
       <c r="D141" t="n">
-        <v>0.348523987333142</v>
+        <v>0.343297166904826</v>
       </c>
       <c r="E141" t="n">
-        <v>144</v>
+        <v>473</v>
       </c>
       <c r="F141" t="n">
-        <v>132</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142">
@@ -3513,13 +3513,13 @@
         <v>147</v>
       </c>
       <c r="D142" t="n">
-        <v>0.347016573821591</v>
+        <v>0.342977827255777</v>
       </c>
       <c r="E142" t="n">
-        <v>1379</v>
+        <v>100</v>
       </c>
       <c r="F142" t="n">
-        <v>818</v>
+        <v>91</v>
       </c>
     </row>
     <row r="143">
@@ -3531,13 +3531,13 @@
         <v>148</v>
       </c>
       <c r="D143" t="n">
-        <v>0.347005443351168</v>
+        <v>0.342522082317325</v>
       </c>
       <c r="E143" t="n">
-        <v>115</v>
+        <v>658</v>
       </c>
       <c r="F143" t="n">
-        <v>89</v>
+        <v>426</v>
       </c>
     </row>
     <row r="144">
@@ -3549,13 +3549,13 @@
         <v>149</v>
       </c>
       <c r="D144" t="n">
-        <v>0.346775410747327</v>
+        <v>0.341675842875531</v>
       </c>
       <c r="E144" t="n">
-        <v>232</v>
+        <v>343</v>
       </c>
       <c r="F144" t="n">
-        <v>194</v>
+        <v>299</v>
       </c>
     </row>
     <row r="145">
@@ -3567,13 +3567,13 @@
         <v>150</v>
       </c>
       <c r="D145" t="n">
-        <v>0.343648507463317</v>
+        <v>0.341490769730389</v>
       </c>
       <c r="E145" t="n">
-        <v>274</v>
+        <v>471</v>
       </c>
       <c r="F145" t="n">
-        <v>228</v>
+        <v>377</v>
       </c>
     </row>
     <row r="146">
@@ -3585,13 +3585,13 @@
         <v>151</v>
       </c>
       <c r="D146" t="n">
-        <v>0.342420679856766</v>
+        <v>0.339391421621625</v>
       </c>
       <c r="E146" t="n">
-        <v>302</v>
+        <v>794</v>
       </c>
       <c r="F146" t="n">
-        <v>260</v>
+        <v>503</v>
       </c>
     </row>
     <row r="147">
@@ -3603,13 +3603,13 @@
         <v>152</v>
       </c>
       <c r="D147" t="n">
-        <v>0.342102073964864</v>
+        <v>0.339214460201039</v>
       </c>
       <c r="E147" t="n">
-        <v>593</v>
+        <v>189</v>
       </c>
       <c r="F147" t="n">
-        <v>424</v>
+        <v>139</v>
       </c>
     </row>
     <row r="148">
@@ -3621,13 +3621,13 @@
         <v>153</v>
       </c>
       <c r="D148" t="n">
-        <v>0.342095180095008</v>
+        <v>0.338172882173325</v>
       </c>
       <c r="E148" t="n">
-        <v>1060</v>
+        <v>92</v>
       </c>
       <c r="F148" t="n">
-        <v>759</v>
+        <v>85</v>
       </c>
     </row>
     <row r="149">
@@ -3639,13 +3639,13 @@
         <v>154</v>
       </c>
       <c r="D149" t="n">
-        <v>0.339284386794703</v>
+        <v>0.337768317962943</v>
       </c>
       <c r="E149" t="n">
-        <v>552</v>
+        <v>421</v>
       </c>
       <c r="F149" t="n">
-        <v>375</v>
+        <v>280</v>
       </c>
     </row>
     <row r="150">
@@ -3657,13 +3657,13 @@
         <v>155</v>
       </c>
       <c r="D150" t="n">
-        <v>0.338793259697777</v>
+        <v>0.337050824519953</v>
       </c>
       <c r="E150" t="n">
-        <v>432</v>
+        <v>518</v>
       </c>
       <c r="F150" t="n">
-        <v>349</v>
+        <v>414</v>
       </c>
     </row>
     <row r="151">
@@ -3675,13 +3675,13 @@
         <v>156</v>
       </c>
       <c r="D151" t="n">
-        <v>0.338612098302796</v>
+        <v>0.335642307341407</v>
       </c>
       <c r="E151" t="n">
-        <v>421</v>
+        <v>811</v>
       </c>
       <c r="F151" t="n">
-        <v>280</v>
+        <v>498</v>
       </c>
     </row>
     <row r="152">
@@ -3693,13 +3693,13 @@
         <v>157</v>
       </c>
       <c r="D152" t="n">
-        <v>0.337818388866667</v>
+        <v>0.334419685758487</v>
       </c>
       <c r="E152" t="n">
-        <v>1114</v>
+        <v>106</v>
       </c>
       <c r="F152" t="n">
-        <v>478</v>
+        <v>94</v>
       </c>
     </row>
     <row r="153">
@@ -3711,13 +3711,13 @@
         <v>158</v>
       </c>
       <c r="D153" t="n">
-        <v>0.337088618125845</v>
+        <v>0.334347193192551</v>
       </c>
       <c r="E153" t="n">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="F153" t="n">
-        <v>189</v>
+        <v>81</v>
       </c>
     </row>
     <row r="154">
@@ -3729,13 +3729,13 @@
         <v>159</v>
       </c>
       <c r="D154" t="n">
-        <v>0.337022146414666</v>
+        <v>0.333447136476423</v>
       </c>
       <c r="E154" t="n">
-        <v>1080</v>
+        <v>957</v>
       </c>
       <c r="F154" t="n">
-        <v>715</v>
+        <v>560</v>
       </c>
     </row>
     <row r="155">
@@ -3747,13 +3747,13 @@
         <v>160</v>
       </c>
       <c r="D155" t="n">
-        <v>0.335388241674929</v>
+        <v>0.332236986297673</v>
       </c>
       <c r="E155" t="n">
-        <v>358</v>
+        <v>1276</v>
       </c>
       <c r="F155" t="n">
-        <v>273</v>
+        <v>816</v>
       </c>
     </row>
     <row r="156">
@@ -3765,13 +3765,13 @@
         <v>161</v>
       </c>
       <c r="D156" t="n">
-        <v>0.335230673838912</v>
+        <v>0.33147113236786</v>
       </c>
       <c r="E156" t="n">
-        <v>165</v>
+        <v>513</v>
       </c>
       <c r="F156" t="n">
-        <v>144</v>
+        <v>327</v>
       </c>
     </row>
     <row r="157">
@@ -3783,13 +3783,13 @@
         <v>162</v>
       </c>
       <c r="D157" t="n">
-        <v>0.335187084219522</v>
+        <v>0.328927876050777</v>
       </c>
       <c r="E157" t="n">
-        <v>724</v>
+        <v>44</v>
       </c>
       <c r="F157" t="n">
-        <v>490</v>
+        <v>43</v>
       </c>
     </row>
     <row r="158">
@@ -3801,13 +3801,13 @@
         <v>163</v>
       </c>
       <c r="D158" t="n">
-        <v>0.335062653302211</v>
+        <v>0.326677636030189</v>
       </c>
       <c r="E158" t="n">
-        <v>473</v>
+        <v>215</v>
       </c>
       <c r="F158" t="n">
-        <v>260</v>
+        <v>189</v>
       </c>
     </row>
     <row r="159">
@@ -3819,13 +3819,13 @@
         <v>164</v>
       </c>
       <c r="D159" t="n">
-        <v>0.334145215534001</v>
+        <v>0.325893040472468</v>
       </c>
       <c r="E159" t="n">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="F159" t="n">
-        <v>314</v>
+        <v>273</v>
       </c>
     </row>
     <row r="160">
@@ -3837,13 +3837,13 @@
         <v>165</v>
       </c>
       <c r="D160" t="n">
-        <v>0.332668367147059</v>
+        <v>0.323665614028336</v>
       </c>
       <c r="E160" t="n">
-        <v>842</v>
+        <v>875</v>
       </c>
       <c r="F160" t="n">
-        <v>612</v>
+        <v>553</v>
       </c>
     </row>
     <row r="161">
@@ -3855,13 +3855,13 @@
         <v>166</v>
       </c>
       <c r="D161" t="n">
-        <v>0.331926557452077</v>
+        <v>0.323469949444449</v>
       </c>
       <c r="E161" t="n">
-        <v>518</v>
+        <v>642</v>
       </c>
       <c r="F161" t="n">
-        <v>414</v>
+        <v>464</v>
       </c>
     </row>
     <row r="162">
@@ -3873,13 +3873,13 @@
         <v>167</v>
       </c>
       <c r="D162" t="n">
-        <v>0.330983324261639</v>
+        <v>0.323353186460215</v>
       </c>
       <c r="E162" t="n">
-        <v>811</v>
+        <v>593</v>
       </c>
       <c r="F162" t="n">
-        <v>498</v>
+        <v>424</v>
       </c>
     </row>
     <row r="163">
@@ -3891,13 +3891,13 @@
         <v>168</v>
       </c>
       <c r="D163" t="n">
-        <v>0.330847148148511</v>
+        <v>0.321260705655294</v>
       </c>
       <c r="E163" t="n">
-        <v>273</v>
+        <v>606</v>
       </c>
       <c r="F163" t="n">
-        <v>232</v>
+        <v>445</v>
       </c>
     </row>
     <row r="164">
@@ -3909,13 +3909,13 @@
         <v>169</v>
       </c>
       <c r="D164" t="n">
-        <v>0.329926407520812</v>
+        <v>0.319647317484239</v>
       </c>
       <c r="E164" t="n">
-        <v>100</v>
+        <v>391</v>
       </c>
       <c r="F164" t="n">
-        <v>91</v>
+        <v>186</v>
       </c>
     </row>
     <row r="165">
@@ -3927,13 +3927,13 @@
         <v>170</v>
       </c>
       <c r="D165" t="n">
-        <v>0.328656391051986</v>
+        <v>0.319292630077618</v>
       </c>
       <c r="E165" t="n">
-        <v>396</v>
+        <v>632</v>
       </c>
       <c r="F165" t="n">
-        <v>309</v>
+        <v>486</v>
       </c>
     </row>
     <row r="166">
@@ -3945,13 +3945,13 @@
         <v>171</v>
       </c>
       <c r="D166" t="n">
-        <v>0.328112697588905</v>
+        <v>0.318178168480529</v>
       </c>
       <c r="E166" t="n">
-        <v>374</v>
+        <v>245</v>
       </c>
       <c r="F166" t="n">
-        <v>323</v>
+        <v>206</v>
       </c>
     </row>
     <row r="167">
@@ -3963,13 +3963,13 @@
         <v>172</v>
       </c>
       <c r="D167" t="n">
-        <v>0.327719944692754</v>
+        <v>0.317270135701525</v>
       </c>
       <c r="E167" t="n">
-        <v>153</v>
+        <v>396</v>
       </c>
       <c r="F167" t="n">
-        <v>137</v>
+        <v>309</v>
       </c>
     </row>
     <row r="168">
@@ -3981,13 +3981,13 @@
         <v>173</v>
       </c>
       <c r="D168" t="n">
-        <v>0.32694173707494</v>
+        <v>0.317150896356903</v>
       </c>
       <c r="E168" t="n">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="F168" t="n">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="169">
@@ -3999,13 +3999,13 @@
         <v>174</v>
       </c>
       <c r="D169" t="n">
-        <v>0.326409844613617</v>
+        <v>0.317120146071094</v>
       </c>
       <c r="E169" t="n">
-        <v>73</v>
+        <v>1080</v>
       </c>
       <c r="F169" t="n">
-        <v>71</v>
+        <v>715</v>
       </c>
     </row>
     <row r="170">
@@ -4017,13 +4017,13 @@
         <v>175</v>
       </c>
       <c r="D170" t="n">
-        <v>0.325706494018307</v>
+        <v>0.316718690233162</v>
       </c>
       <c r="E170" t="n">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="F170" t="n">
-        <v>60</v>
+        <v>101</v>
       </c>
     </row>
     <row r="171">
@@ -4035,13 +4035,13 @@
         <v>176</v>
       </c>
       <c r="D171" t="n">
-        <v>0.325679698020419</v>
+        <v>0.315741572301718</v>
       </c>
       <c r="E171" t="n">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="F171" t="n">
-        <v>72</v>
+        <v>274</v>
       </c>
     </row>
     <row r="172">
@@ -4053,13 +4053,13 @@
         <v>177</v>
       </c>
       <c r="D172" t="n">
-        <v>0.324231450958498</v>
+        <v>0.315397185992603</v>
       </c>
       <c r="E172" t="n">
+        <v>262</v>
+      </c>
+      <c r="F172" t="n">
         <v>236</v>
-      </c>
-      <c r="F172" t="n">
-        <v>201</v>
       </c>
     </row>
     <row r="173">
@@ -4071,13 +4071,13 @@
         <v>178</v>
       </c>
       <c r="D173" t="n">
-        <v>0.323852232898147</v>
+        <v>0.315042324227105</v>
       </c>
       <c r="E173" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F173" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="174">
@@ -4089,13 +4089,13 @@
         <v>179</v>
       </c>
       <c r="D174" t="n">
-        <v>0.323183400470848</v>
+        <v>0.314529784747559</v>
       </c>
       <c r="E174" t="n">
-        <v>2613</v>
+        <v>418</v>
       </c>
       <c r="F174" t="n">
-        <v>1149</v>
+        <v>196</v>
       </c>
     </row>
     <row r="175">
@@ -4107,13 +4107,13 @@
         <v>180</v>
       </c>
       <c r="D175" t="n">
-        <v>0.323055946990594</v>
+        <v>0.31448292200094</v>
       </c>
       <c r="E175" t="n">
-        <v>166</v>
+        <v>521</v>
       </c>
       <c r="F175" t="n">
-        <v>139</v>
+        <v>387</v>
       </c>
     </row>
     <row r="176">
@@ -4125,13 +4125,13 @@
         <v>181</v>
       </c>
       <c r="D176" t="n">
-        <v>0.32168693490163</v>
+        <v>0.314432780179797</v>
       </c>
       <c r="E176" t="n">
-        <v>92</v>
+        <v>666</v>
       </c>
       <c r="F176" t="n">
-        <v>86</v>
+        <v>465</v>
       </c>
     </row>
     <row r="177">
@@ -4143,13 +4143,13 @@
         <v>182</v>
       </c>
       <c r="D177" t="n">
-        <v>0.319821086307303</v>
+        <v>0.314049886207402</v>
       </c>
       <c r="E177" t="n">
-        <v>44</v>
+        <v>628</v>
       </c>
       <c r="F177" t="n">
-        <v>43</v>
+        <v>466</v>
       </c>
     </row>
     <row r="178">
@@ -4161,13 +4161,13 @@
         <v>183</v>
       </c>
       <c r="D178" t="n">
-        <v>0.319287819184492</v>
+        <v>0.313215814204785</v>
       </c>
       <c r="E178" t="n">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="F178" t="n">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="179">
@@ -4179,13 +4179,13 @@
         <v>184</v>
       </c>
       <c r="D179" t="n">
-        <v>0.318537259650749</v>
+        <v>0.30913489456407</v>
       </c>
       <c r="E179" t="n">
-        <v>991</v>
+        <v>158</v>
       </c>
       <c r="F179" t="n">
-        <v>673</v>
+        <v>153</v>
       </c>
     </row>
     <row r="180">
@@ -4197,13 +4197,13 @@
         <v>185</v>
       </c>
       <c r="D180" t="n">
-        <v>0.316738256259301</v>
+        <v>0.308246382441874</v>
       </c>
       <c r="E180" t="n">
-        <v>1276</v>
+        <v>1215</v>
       </c>
       <c r="F180" t="n">
-        <v>816</v>
+        <v>557</v>
       </c>
     </row>
     <row r="181">
@@ -4215,13 +4215,13 @@
         <v>186</v>
       </c>
       <c r="D181" t="n">
-        <v>0.316074618748663</v>
+        <v>0.308011299254639</v>
       </c>
       <c r="E181" t="n">
-        <v>372</v>
+        <v>152</v>
       </c>
       <c r="F181" t="n">
-        <v>300</v>
+        <v>122</v>
       </c>
     </row>
     <row r="182">
@@ -4233,13 +4233,13 @@
         <v>187</v>
       </c>
       <c r="D182" t="n">
-        <v>0.315693327158998</v>
+        <v>0.306671022467218</v>
       </c>
       <c r="E182" t="n">
-        <v>232</v>
+        <v>2613</v>
       </c>
       <c r="F182" t="n">
-        <v>186</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="183">
@@ -4251,13 +4251,13 @@
         <v>188</v>
       </c>
       <c r="D183" t="n">
-        <v>0.314829450916996</v>
+        <v>0.306409456262927</v>
       </c>
       <c r="E183" t="n">
-        <v>175</v>
+        <v>842</v>
       </c>
       <c r="F183" t="n">
-        <v>120</v>
+        <v>612</v>
       </c>
     </row>
     <row r="184">
@@ -4269,13 +4269,13 @@
         <v>189</v>
       </c>
       <c r="D184" t="n">
-        <v>0.313456734367274</v>
+        <v>0.30527447216861</v>
       </c>
       <c r="E184" t="n">
-        <v>391</v>
+        <v>172</v>
       </c>
       <c r="F184" t="n">
-        <v>186</v>
+        <v>133</v>
       </c>
     </row>
     <row r="185">
@@ -4287,13 +4287,13 @@
         <v>190</v>
       </c>
       <c r="D185" t="n">
-        <v>0.312723610288571</v>
+        <v>0.304374211124065</v>
       </c>
       <c r="E185" t="n">
-        <v>352</v>
+        <v>232</v>
       </c>
       <c r="F185" t="n">
-        <v>271</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186">
@@ -4305,13 +4305,13 @@
         <v>191</v>
       </c>
       <c r="D186" t="n">
-        <v>0.31245048731877</v>
+        <v>0.304327696748358</v>
       </c>
       <c r="E186" t="n">
-        <v>475</v>
+        <v>104</v>
       </c>
       <c r="F186" t="n">
-        <v>386</v>
+        <v>98</v>
       </c>
     </row>
     <row r="187">
@@ -4323,13 +4323,13 @@
         <v>192</v>
       </c>
       <c r="D187" t="n">
-        <v>0.311050883724474</v>
+        <v>0.304158781963553</v>
       </c>
       <c r="E187" t="n">
-        <v>606</v>
+        <v>47</v>
       </c>
       <c r="F187" t="n">
-        <v>445</v>
+        <v>41</v>
       </c>
     </row>
     <row r="188">
@@ -4341,13 +4341,13 @@
         <v>193</v>
       </c>
       <c r="D188" t="n">
-        <v>0.310696585048398</v>
+        <v>0.304080768562413</v>
       </c>
       <c r="E188" t="n">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="F188" t="n">
-        <v>255</v>
+        <v>202</v>
       </c>
     </row>
     <row r="189">
@@ -4359,13 +4359,13 @@
         <v>194</v>
       </c>
       <c r="D189" t="n">
-        <v>0.310641708219158</v>
+        <v>0.303708260498113</v>
       </c>
       <c r="E189" t="n">
-        <v>1145</v>
+        <v>387</v>
       </c>
       <c r="F189" t="n">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="190">
@@ -4377,13 +4377,13 @@
         <v>195</v>
       </c>
       <c r="D190" t="n">
-        <v>0.30857987862754</v>
+        <v>0.302349561014806</v>
       </c>
       <c r="E190" t="n">
-        <v>132</v>
+        <v>349</v>
       </c>
       <c r="F190" t="n">
-        <v>102</v>
+        <v>229</v>
       </c>
     </row>
     <row r="191">
@@ -4395,13 +4395,13 @@
         <v>196</v>
       </c>
       <c r="D191" t="n">
-        <v>0.307826625818459</v>
+        <v>0.302273678457325</v>
       </c>
       <c r="E191" t="n">
-        <v>97</v>
+        <v>369</v>
       </c>
       <c r="F191" t="n">
-        <v>76</v>
+        <v>296</v>
       </c>
     </row>
     <row r="192">
@@ -4413,13 +4413,13 @@
         <v>197</v>
       </c>
       <c r="D192" t="n">
-        <v>0.30746619841226</v>
+        <v>0.301689694906881</v>
       </c>
       <c r="E192" t="n">
-        <v>252</v>
+        <v>1116</v>
       </c>
       <c r="F192" t="n">
-        <v>198</v>
+        <v>764</v>
       </c>
     </row>
     <row r="193">
@@ -4431,13 +4431,13 @@
         <v>198</v>
       </c>
       <c r="D193" t="n">
-        <v>0.307416582098352</v>
+        <v>0.300466983532998</v>
       </c>
       <c r="E193" t="n">
-        <v>500</v>
+        <v>112</v>
       </c>
       <c r="F193" t="n">
-        <v>372</v>
+        <v>86</v>
       </c>
     </row>
     <row r="194">
@@ -4449,13 +4449,13 @@
         <v>199</v>
       </c>
       <c r="D194" t="n">
-        <v>0.305304513016527</v>
+        <v>0.299835456689591</v>
       </c>
       <c r="E194" t="n">
-        <v>521</v>
+        <v>204</v>
       </c>
       <c r="F194" t="n">
-        <v>387</v>
+        <v>151</v>
       </c>
     </row>
     <row r="195">
@@ -4467,13 +4467,13 @@
         <v>200</v>
       </c>
       <c r="D195" t="n">
-        <v>0.305062807020099</v>
+        <v>0.296465154453419</v>
       </c>
       <c r="E195" t="n">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="F195" t="n">
-        <v>133</v>
+        <v>86</v>
       </c>
     </row>
     <row r="196">
@@ -4485,13 +4485,13 @@
         <v>201</v>
       </c>
       <c r="D196" t="n">
-        <v>0.304538424346806</v>
+        <v>0.295900407861541</v>
       </c>
       <c r="E196" t="n">
-        <v>711</v>
+        <v>98</v>
       </c>
       <c r="F196" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
     </row>
     <row r="197">
@@ -4503,13 +4503,13 @@
         <v>202</v>
       </c>
       <c r="D197" t="n">
-        <v>0.304134201213584</v>
+        <v>0.295591131594595</v>
       </c>
       <c r="E197" t="n">
-        <v>471</v>
+        <v>236</v>
       </c>
       <c r="F197" t="n">
-        <v>377</v>
+        <v>201</v>
       </c>
     </row>
     <row r="198">
@@ -4521,13 +4521,13 @@
         <v>203</v>
       </c>
       <c r="D198" t="n">
-        <v>0.303671782459107</v>
+        <v>0.29385195136897</v>
       </c>
       <c r="E198" t="n">
-        <v>642</v>
+        <v>75</v>
       </c>
       <c r="F198" t="n">
-        <v>464</v>
+        <v>47</v>
       </c>
     </row>
     <row r="199">
@@ -4539,13 +4539,13 @@
         <v>204</v>
       </c>
       <c r="D199" t="n">
-        <v>0.30225754907667</v>
+        <v>0.293673822309212</v>
       </c>
       <c r="E199" t="n">
-        <v>300</v>
+        <v>157</v>
       </c>
       <c r="F199" t="n">
-        <v>151</v>
+        <v>116</v>
       </c>
     </row>
     <row r="200">
@@ -4557,13 +4557,13 @@
         <v>205</v>
       </c>
       <c r="D200" t="n">
-        <v>0.301233967172795</v>
+        <v>0.292844505508967</v>
       </c>
       <c r="E200" t="n">
-        <v>160</v>
+        <v>1130</v>
       </c>
       <c r="F200" t="n">
-        <v>118</v>
+        <v>635</v>
       </c>
     </row>
     <row r="201">
@@ -4575,13 +4575,13 @@
         <v>206</v>
       </c>
       <c r="D201" t="n">
-        <v>0.299390687953236</v>
+        <v>0.292091727921968</v>
       </c>
       <c r="E201" t="n">
-        <v>875</v>
+        <v>239</v>
       </c>
       <c r="F201" t="n">
-        <v>553</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
